--- a/공유폴더/DB초안.xlsx
+++ b/공유폴더/DB초안.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typho\Desktop\파이널 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B29DAC2-721D-4F52-A055-B1AB3D5A81FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6EE02D-0F92-4E04-8CE9-29180967C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{0F66DA22-5B5C-4914-BC28-1040750F5302}"/>
+    <workbookView xWindow="36000" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{0F66DA22-5B5C-4914-BC28-1040750F5302}"/>
   </bookViews>
   <sheets>
     <sheet name="크크펀딩" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="141">
   <si>
     <t>카테고리</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>펀딩테이블  추가될때 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -582,6 +578,28 @@
   </si>
   <si>
     <t>펀딩등록일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>펀딩테이블  추가될때 업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(업데이트시 누가 자바?DB? 반올림 (수량/목표*100)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +753,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -838,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +991,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD9159-14E5-476C-BB3A-E0CE1E75E268}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1293,61 +1326,61 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="91.25" customWidth="1"/>
     <col min="6" max="9" width="5.875" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7.875" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>98</v>
-      </c>
       <c r="H2" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1355,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="34"/>
@@ -1373,15 +1406,15 @@
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -1393,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -1417,38 +1450,38 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -1459,13 +1492,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -1478,21 +1511,21 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
         <v>118</v>
-      </c>
-      <c r="L9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1500,21 +1533,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
@@ -1524,17 +1557,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -1543,13 +1576,13 @@
     </row>
     <row r="12" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -1563,23 +1596,23 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
@@ -1589,23 +1622,23 @@
         <v>7</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -1615,14 +1648,14 @@
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
@@ -1634,12 +1667,12 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
@@ -1652,33 +1685,33 @@
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
     <row r="18" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -1691,10 +1724,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="34"/>
@@ -1702,10 +1735,10 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,10 +1756,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1735,10 +1768,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1747,10 +1780,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1759,10 +1792,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1771,12 +1804,12 @@
         <v>27</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="I25" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
@@ -1784,266 +1817,266 @@
         <v>5</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2"/>
       <c r="I26" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="C34" s="26"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="20" t="s">
+      <c r="E36" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="30" t="s">
+      <c r="D38" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="C42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>66</v>
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B50" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>73</v>
@@ -2053,39 +2086,49 @@
     </row>
     <row r="51" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>76</v>
+    <row r="53" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2114,13 +2157,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -2128,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="24">
         <v>10</v>
@@ -2139,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="24">
         <v>11</v>
@@ -2150,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="24">
         <v>12</v>
@@ -2161,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="24">
         <v>13</v>
@@ -2172,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="24">
         <v>10</v>
@@ -2183,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="24">
         <v>11</v>
@@ -2194,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="24">
         <v>12</v>
@@ -2205,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="24">
         <v>10</v>
@@ -2216,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="24">
         <v>10</v>
@@ -2227,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="24">
         <v>10</v>
@@ -2238,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="24">
         <v>10</v>
@@ -2249,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="24">
         <v>10</v>
@@ -2258,7 +2301,7 @@
     <row r="15" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="24">
         <v>10</v>
